--- a/Packages/cn.etetet.wow/Excel/EffectConfig.xlsx
+++ b/Packages/cn.etetet.wow/Excel/EffectConfig.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255"/>
+    <workbookView windowWidth="28800" windowHeight="12255" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="EffectConfig" sheetId="1" r:id="rId1"/>
+    <sheet name="#EffectType" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="40">
   <si>
     <t>#</t>
   </si>
@@ -132,6 +133,21 @@
   </si>
   <si>
     <t>速度pct</t>
+  </si>
+  <si>
+    <t>名字</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Damage</t>
+  </si>
+  <si>
+    <t>Fakebullet</t>
+  </si>
+  <si>
+    <t>NumericChange</t>
   </si>
 </sst>
 </file>
@@ -155,6 +171,19 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -162,19 +191,6 @@
     <font>
       <sz val="10"/>
       <color rgb="FF9C6500"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color theme="1"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
@@ -339,13 +355,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -708,7 +724,7 @@
     <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -785,35 +801,29 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="24" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="49" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="49" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="49" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="24" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="49" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="49" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="24" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="24" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="49" applyFont="1" applyAlignment="1">
@@ -1170,1836 +1180,1836 @@
   <sheetPr/>
   <dimension ref="A1:V128"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.85"/>
   <cols>
-    <col min="1" max="2" width="9" style="1"/>
-    <col min="3" max="3" width="9.61061946902655" style="1" customWidth="1"/>
-    <col min="4" max="4" width="21.9115044247788" style="1" customWidth="1"/>
-    <col min="5" max="5" width="22.1061946902655" style="1" customWidth="1"/>
-    <col min="6" max="6" width="19.6548672566372" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10.9557522123894" style="2" customWidth="1"/>
-    <col min="8" max="8" width="9" style="1"/>
-    <col min="9" max="9" width="11.0265486725664" style="2" customWidth="1"/>
-    <col min="10" max="10" width="9" style="1"/>
-    <col min="11" max="11" width="12.283185840708" style="2" customWidth="1"/>
-    <col min="12" max="12" width="9" style="1"/>
-    <col min="13" max="13" width="12.283185840708" style="2" customWidth="1"/>
-    <col min="14" max="14" width="9" style="1"/>
-    <col min="15" max="15" width="12.283185840708" style="2" customWidth="1"/>
-    <col min="16" max="16" width="9" style="1"/>
-    <col min="17" max="17" width="26.5575221238938" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="9" style="1"/>
+    <col min="1" max="2" width="9" style="4"/>
+    <col min="3" max="3" width="9.61061946902655" style="4" customWidth="1"/>
+    <col min="4" max="4" width="21.9115044247788" style="4" customWidth="1"/>
+    <col min="5" max="5" width="22.1061946902655" style="4" customWidth="1"/>
+    <col min="6" max="6" width="19.6548672566372" style="4" customWidth="1"/>
+    <col min="7" max="7" width="10.9557522123894" style="7" customWidth="1"/>
+    <col min="8" max="8" width="9" style="4"/>
+    <col min="9" max="9" width="11.0265486725664" style="7" customWidth="1"/>
+    <col min="10" max="10" width="9" style="4"/>
+    <col min="11" max="11" width="12.283185840708" style="7" customWidth="1"/>
+    <col min="12" max="12" width="9" style="4"/>
+    <col min="13" max="13" width="12.283185840708" style="7" customWidth="1"/>
+    <col min="14" max="14" width="9" style="4"/>
+    <col min="15" max="15" width="12.283185840708" style="7" customWidth="1"/>
+    <col min="16" max="16" width="9" style="4"/>
+    <col min="17" max="17" width="26.5575221238938" style="4" customWidth="1"/>
+    <col min="18" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
-      <c r="A1" s="3"/>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="2"/>
-      <c r="Q1" s="3"/>
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="7"/>
+      <c r="Q1" s="1"/>
     </row>
     <row r="2" ht="13.9" spans="1:17">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="4" t="s">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="5"/>
-      <c r="F2" s="3" t="s">
+      <c r="E2" s="8"/>
+      <c r="F2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="J2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="K2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="L2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="N2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="O2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="P2" s="3" t="s">
+      <c r="P2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="Q2" s="5"/>
+      <c r="Q2" s="8"/>
     </row>
     <row r="3" ht="14.6" spans="1:17">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="6" t="s">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="H3" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="I3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="J3" s="7" t="s">
+      <c r="J3" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="K3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="L3" s="7" t="s">
+      <c r="L3" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="M3" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="N3" s="7" t="s">
+      <c r="N3" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="O3" s="2" t="s">
+      <c r="O3" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="P3" s="7" t="s">
+      <c r="P3" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="Q3" s="6" t="s">
+      <c r="Q3" s="3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="4" ht="14.6" spans="1:17">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="6" t="s">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F4" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="2"/>
-      <c r="H4" s="7" t="s">
+      <c r="G4" s="7"/>
+      <c r="H4" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="I4" s="2"/>
-      <c r="J4" s="7" t="s">
+      <c r="I4" s="7"/>
+      <c r="J4" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="K4" s="2"/>
-      <c r="L4" s="7" t="s">
+      <c r="K4" s="7"/>
+      <c r="L4" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="M4" s="2"/>
-      <c r="N4" s="7" t="s">
+      <c r="M4" s="7"/>
+      <c r="N4" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="O4" s="2"/>
-      <c r="P4" s="7" t="s">
+      <c r="O4" s="7"/>
+      <c r="P4" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="Q4" s="6" t="s">
+      <c r="Q4" s="3" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="5" ht="14.6" spans="1:17">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="6" t="s">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="F5" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="G5" s="2"/>
-      <c r="H5" s="7" t="s">
+      <c r="G5" s="7"/>
+      <c r="H5" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="I5" s="2"/>
-      <c r="J5" s="7" t="s">
+      <c r="I5" s="7"/>
+      <c r="J5" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="K5" s="2"/>
-      <c r="L5" s="7" t="s">
+      <c r="K5" s="7"/>
+      <c r="L5" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="M5" s="2"/>
-      <c r="N5" s="7" t="s">
+      <c r="M5" s="7"/>
+      <c r="N5" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="O5" s="2"/>
-      <c r="P5" s="7" t="s">
+      <c r="O5" s="7"/>
+      <c r="P5" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="Q5" s="6" t="s">
+      <c r="Q5" s="3" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="6" spans="3:22">
-      <c r="C6" s="8">
+      <c r="C6" s="5">
         <v>1</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="E6" s="8">
+      <c r="E6" s="5">
         <v>1</v>
       </c>
-      <c r="F6" s="10"/>
-      <c r="G6" s="11" t="s">
+      <c r="F6" s="5"/>
+      <c r="G6" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="H6" s="8">
+      <c r="H6" s="5">
         <v>10</v>
       </c>
-      <c r="I6" s="11"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="11"/>
-      <c r="L6" s="12"/>
-      <c r="M6" s="11"/>
-      <c r="N6" s="12"/>
-      <c r="O6" s="11"/>
-      <c r="P6" s="12"/>
-      <c r="Q6" s="8" t="str">
+      <c r="I6" s="10"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="10"/>
+      <c r="N6" s="11"/>
+      <c r="O6" s="10"/>
+      <c r="P6" s="11"/>
+      <c r="Q6" s="5" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,H6,J6,L6,N6,P6)</f>
         <v>10</v>
       </c>
-      <c r="R6" s="12"/>
-      <c r="S6" s="12"/>
-      <c r="T6" s="12"/>
-      <c r="U6" s="12"/>
-      <c r="V6" s="12"/>
+      <c r="R6" s="11"/>
+      <c r="S6" s="11"/>
+      <c r="T6" s="11"/>
+      <c r="U6" s="11"/>
+      <c r="V6" s="11"/>
     </row>
     <row r="7" spans="3:22">
-      <c r="C7" s="8">
+      <c r="C7" s="5">
         <v>2</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="E7" s="8">
+      <c r="E7" s="5">
         <v>2</v>
       </c>
-      <c r="F7" s="12"/>
-      <c r="G7" s="11" t="s">
+      <c r="F7" s="11"/>
+      <c r="G7" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="H7" s="13">
+      <c r="H7" s="5">
         <v>100001</v>
       </c>
-      <c r="I7" s="11" t="s">
+      <c r="I7" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="J7" s="13">
+      <c r="J7" s="5">
         <v>100002</v>
       </c>
-      <c r="K7" s="11"/>
-      <c r="L7" s="12"/>
-      <c r="M7" s="11"/>
-      <c r="N7" s="12"/>
-      <c r="O7" s="11"/>
-      <c r="P7" s="12"/>
-      <c r="Q7" s="8" t="str">
+      <c r="K7" s="10"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="10"/>
+      <c r="N7" s="11"/>
+      <c r="O7" s="10"/>
+      <c r="P7" s="11"/>
+      <c r="Q7" s="5" t="str">
         <f t="shared" ref="Q7:Q37" si="0">_xlfn.TEXTJOIN(",",TRUE,H7,J7,L7,N7,P7)</f>
         <v>100001,100002</v>
       </c>
-      <c r="R7" s="12"/>
-      <c r="S7" s="12"/>
-      <c r="T7" s="12"/>
-      <c r="U7" s="12"/>
-      <c r="V7" s="12"/>
+      <c r="R7" s="11"/>
+      <c r="S7" s="11"/>
+      <c r="T7" s="11"/>
+      <c r="U7" s="11"/>
+      <c r="V7" s="11"/>
     </row>
     <row r="8" spans="3:22">
-      <c r="C8" s="8">
+      <c r="C8" s="5">
         <v>3</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="E8" s="8">
+      <c r="E8" s="5">
         <v>3</v>
       </c>
-      <c r="F8" s="12"/>
-      <c r="G8" s="11" t="s">
+      <c r="F8" s="11"/>
+      <c r="G8" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="H8" s="13">
+      <c r="H8" s="5">
         <v>10003</v>
       </c>
-      <c r="I8" s="11"/>
-      <c r="J8" s="13">
+      <c r="I8" s="10"/>
+      <c r="J8" s="5">
         <v>10</v>
       </c>
-      <c r="K8" s="11"/>
-      <c r="L8" s="12"/>
-      <c r="M8" s="11"/>
-      <c r="N8" s="12"/>
-      <c r="O8" s="11"/>
-      <c r="P8" s="12"/>
-      <c r="Q8" s="8" t="str">
-        <f>_xlfn.TEXTJOIN(",",TRUE,H8,J8,L8,N8,P8)</f>
+      <c r="K8" s="10"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="10"/>
+      <c r="N8" s="11"/>
+      <c r="O8" s="10"/>
+      <c r="P8" s="11"/>
+      <c r="Q8" s="5" t="str">
+        <f t="shared" si="0"/>
         <v>10003,10</v>
       </c>
-      <c r="R8" s="12"/>
-      <c r="S8" s="12"/>
-      <c r="T8" s="12"/>
-      <c r="U8" s="12"/>
-      <c r="V8" s="12"/>
+      <c r="R8" s="11"/>
+      <c r="S8" s="11"/>
+      <c r="T8" s="11"/>
+      <c r="U8" s="11"/>
+      <c r="V8" s="11"/>
     </row>
     <row r="9" spans="3:22">
-      <c r="C9" s="8"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="12"/>
-      <c r="K9" s="11"/>
-      <c r="L9" s="12"/>
-      <c r="M9" s="11"/>
-      <c r="N9" s="12"/>
-      <c r="O9" s="11"/>
-      <c r="P9" s="12"/>
-      <c r="Q9" s="8" t="str">
+      <c r="C9" s="5"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="10"/>
+      <c r="N9" s="11"/>
+      <c r="O9" s="10"/>
+      <c r="P9" s="11"/>
+      <c r="Q9" s="5" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="R9" s="12"/>
-      <c r="S9" s="12"/>
-      <c r="T9" s="12"/>
-      <c r="U9" s="12"/>
-      <c r="V9" s="12"/>
+      <c r="R9" s="11"/>
+      <c r="S9" s="11"/>
+      <c r="T9" s="11"/>
+      <c r="U9" s="11"/>
+      <c r="V9" s="11"/>
     </row>
     <row r="10" spans="3:22">
-      <c r="C10" s="8"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="12"/>
-      <c r="K10" s="11"/>
-      <c r="L10" s="12"/>
-      <c r="M10" s="11"/>
-      <c r="N10" s="12"/>
-      <c r="O10" s="11"/>
-      <c r="P10" s="12"/>
-      <c r="Q10" s="8" t="str">
+      <c r="C10" s="5"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="10"/>
+      <c r="N10" s="11"/>
+      <c r="O10" s="10"/>
+      <c r="P10" s="11"/>
+      <c r="Q10" s="5" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="R10" s="12"/>
-      <c r="S10" s="12"/>
-      <c r="T10" s="12"/>
-      <c r="U10" s="12"/>
-      <c r="V10" s="12"/>
+      <c r="R10" s="11"/>
+      <c r="S10" s="11"/>
+      <c r="T10" s="11"/>
+      <c r="U10" s="11"/>
+      <c r="V10" s="11"/>
     </row>
     <row r="11" spans="3:22">
-      <c r="C11" s="8"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="11"/>
-      <c r="J11" s="12"/>
-      <c r="K11" s="11"/>
-      <c r="L11" s="12"/>
-      <c r="M11" s="11"/>
-      <c r="N11" s="12"/>
-      <c r="O11" s="11"/>
-      <c r="P11" s="12"/>
-      <c r="Q11" s="8" t="str">
+      <c r="C11" s="5"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="10"/>
+      <c r="N11" s="11"/>
+      <c r="O11" s="10"/>
+      <c r="P11" s="11"/>
+      <c r="Q11" s="5" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="R11" s="12"/>
-      <c r="S11" s="12"/>
-      <c r="T11" s="12"/>
-      <c r="U11" s="12"/>
-      <c r="V11" s="12"/>
+      <c r="R11" s="11"/>
+      <c r="S11" s="11"/>
+      <c r="T11" s="11"/>
+      <c r="U11" s="11"/>
+      <c r="V11" s="11"/>
     </row>
     <row r="12" spans="3:22">
-      <c r="C12" s="8"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="11"/>
-      <c r="J12" s="12"/>
-      <c r="K12" s="11"/>
-      <c r="L12" s="12"/>
-      <c r="M12" s="11"/>
-      <c r="N12" s="12"/>
-      <c r="O12" s="11"/>
-      <c r="P12" s="12"/>
-      <c r="Q12" s="8" t="str">
+      <c r="C12" s="5"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="11"/>
+      <c r="M12" s="10"/>
+      <c r="N12" s="11"/>
+      <c r="O12" s="10"/>
+      <c r="P12" s="11"/>
+      <c r="Q12" s="5" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="R12" s="12"/>
-      <c r="S12" s="12"/>
-      <c r="T12" s="12"/>
-      <c r="U12" s="12"/>
-      <c r="V12" s="12"/>
+      <c r="R12" s="11"/>
+      <c r="S12" s="11"/>
+      <c r="T12" s="11"/>
+      <c r="U12" s="11"/>
+      <c r="V12" s="11"/>
     </row>
     <row r="13" spans="3:22">
-      <c r="C13" s="8"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="11"/>
-      <c r="J13" s="12"/>
-      <c r="K13" s="11"/>
-      <c r="L13" s="12"/>
-      <c r="M13" s="11"/>
-      <c r="N13" s="12"/>
-      <c r="O13" s="11"/>
-      <c r="P13" s="12"/>
-      <c r="Q13" s="8" t="str">
+      <c r="C13" s="5"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="10"/>
+      <c r="L13" s="11"/>
+      <c r="M13" s="10"/>
+      <c r="N13" s="11"/>
+      <c r="O13" s="10"/>
+      <c r="P13" s="11"/>
+      <c r="Q13" s="5" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="R13" s="12"/>
-      <c r="S13" s="12"/>
-      <c r="T13" s="12"/>
-      <c r="U13" s="12"/>
-      <c r="V13" s="12"/>
+      <c r="R13" s="11"/>
+      <c r="S13" s="11"/>
+      <c r="T13" s="11"/>
+      <c r="U13" s="11"/>
+      <c r="V13" s="11"/>
     </row>
     <row r="14" spans="3:22">
-      <c r="C14" s="8"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="12"/>
-      <c r="I14" s="11"/>
-      <c r="J14" s="12"/>
-      <c r="K14" s="11"/>
-      <c r="L14" s="12"/>
-      <c r="M14" s="11"/>
-      <c r="N14" s="12"/>
-      <c r="O14" s="11"/>
-      <c r="P14" s="12"/>
-      <c r="Q14" s="8" t="str">
+      <c r="C14" s="5"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="10"/>
+      <c r="L14" s="11"/>
+      <c r="M14" s="10"/>
+      <c r="N14" s="11"/>
+      <c r="O14" s="10"/>
+      <c r="P14" s="11"/>
+      <c r="Q14" s="5" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="R14" s="12"/>
-      <c r="S14" s="12"/>
-      <c r="T14" s="12"/>
-      <c r="U14" s="12"/>
-      <c r="V14" s="12"/>
+      <c r="R14" s="11"/>
+      <c r="S14" s="11"/>
+      <c r="T14" s="11"/>
+      <c r="U14" s="11"/>
+      <c r="V14" s="11"/>
     </row>
     <row r="15" spans="3:22">
-      <c r="C15" s="8"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="12"/>
-      <c r="I15" s="11"/>
-      <c r="J15" s="12"/>
-      <c r="K15" s="11"/>
-      <c r="L15" s="12"/>
-      <c r="M15" s="11"/>
-      <c r="N15" s="12"/>
-      <c r="O15" s="11"/>
-      <c r="P15" s="12"/>
-      <c r="Q15" s="8" t="str">
+      <c r="C15" s="5"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="10"/>
+      <c r="L15" s="11"/>
+      <c r="M15" s="10"/>
+      <c r="N15" s="11"/>
+      <c r="O15" s="10"/>
+      <c r="P15" s="11"/>
+      <c r="Q15" s="5" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="R15" s="12"/>
-      <c r="S15" s="12"/>
-      <c r="T15" s="12"/>
-      <c r="U15" s="12"/>
-      <c r="V15" s="12"/>
+      <c r="R15" s="11"/>
+      <c r="S15" s="11"/>
+      <c r="T15" s="11"/>
+      <c r="U15" s="11"/>
+      <c r="V15" s="11"/>
     </row>
     <row r="16" spans="3:22">
-      <c r="C16" s="8"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="12"/>
-      <c r="I16" s="11"/>
-      <c r="J16" s="12"/>
-      <c r="K16" s="11"/>
-      <c r="L16" s="12"/>
-      <c r="M16" s="11"/>
-      <c r="N16" s="12"/>
-      <c r="O16" s="11"/>
-      <c r="P16" s="12"/>
-      <c r="Q16" s="8" t="str">
+      <c r="C16" s="5"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="10"/>
+      <c r="L16" s="11"/>
+      <c r="M16" s="10"/>
+      <c r="N16" s="11"/>
+      <c r="O16" s="10"/>
+      <c r="P16" s="11"/>
+      <c r="Q16" s="5" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="R16" s="12"/>
-      <c r="S16" s="12"/>
-      <c r="T16" s="12"/>
-      <c r="U16" s="12"/>
-      <c r="V16" s="12"/>
+      <c r="R16" s="11"/>
+      <c r="S16" s="11"/>
+      <c r="T16" s="11"/>
+      <c r="U16" s="11"/>
+      <c r="V16" s="11"/>
     </row>
     <row r="17" spans="3:22">
-      <c r="C17" s="8"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="12"/>
-      <c r="I17" s="11"/>
-      <c r="J17" s="12"/>
-      <c r="K17" s="11"/>
-      <c r="L17" s="12"/>
-      <c r="M17" s="11"/>
-      <c r="N17" s="12"/>
-      <c r="O17" s="11"/>
-      <c r="P17" s="12"/>
-      <c r="Q17" s="8" t="str">
+      <c r="C17" s="5"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="10"/>
+      <c r="L17" s="11"/>
+      <c r="M17" s="10"/>
+      <c r="N17" s="11"/>
+      <c r="O17" s="10"/>
+      <c r="P17" s="11"/>
+      <c r="Q17" s="5" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="R17" s="12"/>
-      <c r="S17" s="12"/>
-      <c r="T17" s="12"/>
-      <c r="U17" s="12"/>
-      <c r="V17" s="12"/>
+      <c r="R17" s="11"/>
+      <c r="S17" s="11"/>
+      <c r="T17" s="11"/>
+      <c r="U17" s="11"/>
+      <c r="V17" s="11"/>
     </row>
     <row r="18" spans="3:22">
-      <c r="C18" s="8"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="12"/>
-      <c r="I18" s="11"/>
-      <c r="J18" s="12"/>
-      <c r="K18" s="11"/>
-      <c r="L18" s="12"/>
-      <c r="M18" s="11"/>
-      <c r="N18" s="12"/>
-      <c r="O18" s="11"/>
-      <c r="P18" s="12"/>
-      <c r="Q18" s="8" t="str">
+      <c r="C18" s="5"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="10"/>
+      <c r="L18" s="11"/>
+      <c r="M18" s="10"/>
+      <c r="N18" s="11"/>
+      <c r="O18" s="10"/>
+      <c r="P18" s="11"/>
+      <c r="Q18" s="5" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="R18" s="12"/>
-      <c r="S18" s="12"/>
-      <c r="T18" s="12"/>
-      <c r="U18" s="12"/>
-      <c r="V18" s="12"/>
+      <c r="R18" s="11"/>
+      <c r="S18" s="11"/>
+      <c r="T18" s="11"/>
+      <c r="U18" s="11"/>
+      <c r="V18" s="11"/>
     </row>
     <row r="19" spans="3:22">
-      <c r="C19" s="8"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="12"/>
-      <c r="I19" s="11"/>
-      <c r="J19" s="12"/>
-      <c r="K19" s="11"/>
-      <c r="L19" s="12"/>
-      <c r="M19" s="11"/>
-      <c r="N19" s="12"/>
-      <c r="O19" s="11"/>
-      <c r="P19" s="12"/>
-      <c r="Q19" s="8" t="str">
+      <c r="C19" s="5"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="11"/>
+      <c r="K19" s="10"/>
+      <c r="L19" s="11"/>
+      <c r="M19" s="10"/>
+      <c r="N19" s="11"/>
+      <c r="O19" s="10"/>
+      <c r="P19" s="11"/>
+      <c r="Q19" s="5" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="R19" s="12"/>
-      <c r="S19" s="12"/>
-      <c r="T19" s="12"/>
-      <c r="U19" s="12"/>
-      <c r="V19" s="12"/>
+      <c r="R19" s="11"/>
+      <c r="S19" s="11"/>
+      <c r="T19" s="11"/>
+      <c r="U19" s="11"/>
+      <c r="V19" s="11"/>
     </row>
     <row r="20" spans="3:22">
-      <c r="C20" s="8"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="12"/>
-      <c r="I20" s="11"/>
-      <c r="J20" s="12"/>
-      <c r="K20" s="11"/>
-      <c r="L20" s="12"/>
-      <c r="M20" s="11"/>
-      <c r="N20" s="12"/>
-      <c r="O20" s="11"/>
-      <c r="P20" s="12"/>
-      <c r="Q20" s="8" t="str">
+      <c r="C20" s="5"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="10"/>
+      <c r="L20" s="11"/>
+      <c r="M20" s="10"/>
+      <c r="N20" s="11"/>
+      <c r="O20" s="10"/>
+      <c r="P20" s="11"/>
+      <c r="Q20" s="5" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="R20" s="12"/>
-      <c r="S20" s="12"/>
-      <c r="T20" s="12"/>
-      <c r="U20" s="12"/>
-      <c r="V20" s="12"/>
+      <c r="R20" s="11"/>
+      <c r="S20" s="11"/>
+      <c r="T20" s="11"/>
+      <c r="U20" s="11"/>
+      <c r="V20" s="11"/>
     </row>
     <row r="21" spans="3:22">
-      <c r="C21" s="8"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="11"/>
-      <c r="H21" s="12"/>
-      <c r="I21" s="11"/>
-      <c r="J21" s="12"/>
-      <c r="K21" s="11"/>
-      <c r="L21" s="12"/>
-      <c r="M21" s="11"/>
-      <c r="N21" s="12"/>
-      <c r="O21" s="11"/>
-      <c r="P21" s="12"/>
-      <c r="Q21" s="8" t="str">
+      <c r="C21" s="5"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="11"/>
+      <c r="K21" s="10"/>
+      <c r="L21" s="11"/>
+      <c r="M21" s="10"/>
+      <c r="N21" s="11"/>
+      <c r="O21" s="10"/>
+      <c r="P21" s="11"/>
+      <c r="Q21" s="5" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="R21" s="12"/>
-      <c r="S21" s="12"/>
-      <c r="T21" s="12"/>
-      <c r="U21" s="12"/>
-      <c r="V21" s="12"/>
+      <c r="R21" s="11"/>
+      <c r="S21" s="11"/>
+      <c r="T21" s="11"/>
+      <c r="U21" s="11"/>
+      <c r="V21" s="11"/>
     </row>
     <row r="22" spans="3:22">
-      <c r="C22" s="8"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="11"/>
-      <c r="H22" s="12"/>
-      <c r="I22" s="11"/>
-      <c r="J22" s="12"/>
-      <c r="K22" s="11"/>
-      <c r="L22" s="12"/>
-      <c r="M22" s="11"/>
-      <c r="N22" s="12"/>
-      <c r="O22" s="11"/>
-      <c r="P22" s="12"/>
-      <c r="Q22" s="8" t="str">
+      <c r="C22" s="5"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="11"/>
+      <c r="K22" s="10"/>
+      <c r="L22" s="11"/>
+      <c r="M22" s="10"/>
+      <c r="N22" s="11"/>
+      <c r="O22" s="10"/>
+      <c r="P22" s="11"/>
+      <c r="Q22" s="5" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="R22" s="12"/>
-      <c r="S22" s="12"/>
-      <c r="T22" s="12"/>
-      <c r="U22" s="12"/>
-      <c r="V22" s="12"/>
+      <c r="R22" s="11"/>
+      <c r="S22" s="11"/>
+      <c r="T22" s="11"/>
+      <c r="U22" s="11"/>
+      <c r="V22" s="11"/>
     </row>
     <row r="23" spans="3:22">
-      <c r="C23" s="8"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="11"/>
-      <c r="H23" s="12"/>
-      <c r="I23" s="11"/>
-      <c r="J23" s="12"/>
-      <c r="K23" s="11"/>
-      <c r="L23" s="12"/>
-      <c r="M23" s="11"/>
-      <c r="N23" s="12"/>
-      <c r="O23" s="11"/>
-      <c r="P23" s="12"/>
-      <c r="Q23" s="8" t="str">
+      <c r="C23" s="5"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="10"/>
+      <c r="J23" s="11"/>
+      <c r="K23" s="10"/>
+      <c r="L23" s="11"/>
+      <c r="M23" s="10"/>
+      <c r="N23" s="11"/>
+      <c r="O23" s="10"/>
+      <c r="P23" s="11"/>
+      <c r="Q23" s="5" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="R23" s="12"/>
-      <c r="S23" s="12"/>
-      <c r="T23" s="12"/>
-      <c r="U23" s="12"/>
-      <c r="V23" s="12"/>
+      <c r="R23" s="11"/>
+      <c r="S23" s="11"/>
+      <c r="T23" s="11"/>
+      <c r="U23" s="11"/>
+      <c r="V23" s="11"/>
     </row>
     <row r="24" spans="3:22">
-      <c r="C24" s="8"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="11"/>
-      <c r="H24" s="12"/>
-      <c r="I24" s="11"/>
-      <c r="J24" s="12"/>
-      <c r="K24" s="11"/>
-      <c r="L24" s="12"/>
-      <c r="M24" s="11"/>
-      <c r="N24" s="12"/>
-      <c r="O24" s="11"/>
-      <c r="P24" s="12"/>
-      <c r="Q24" s="8" t="str">
+      <c r="C24" s="5"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="10"/>
+      <c r="J24" s="11"/>
+      <c r="K24" s="10"/>
+      <c r="L24" s="11"/>
+      <c r="M24" s="10"/>
+      <c r="N24" s="11"/>
+      <c r="O24" s="10"/>
+      <c r="P24" s="11"/>
+      <c r="Q24" s="5" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="R24" s="12"/>
-      <c r="S24" s="12"/>
-      <c r="T24" s="12"/>
-      <c r="U24" s="12"/>
-      <c r="V24" s="12"/>
+      <c r="R24" s="11"/>
+      <c r="S24" s="11"/>
+      <c r="T24" s="11"/>
+      <c r="U24" s="11"/>
+      <c r="V24" s="11"/>
     </row>
     <row r="25" spans="3:22">
-      <c r="C25" s="8"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="12"/>
-      <c r="G25" s="11"/>
-      <c r="H25" s="12"/>
-      <c r="I25" s="11"/>
-      <c r="J25" s="12"/>
-      <c r="K25" s="11"/>
-      <c r="L25" s="12"/>
-      <c r="M25" s="11"/>
-      <c r="N25" s="12"/>
-      <c r="O25" s="11"/>
-      <c r="P25" s="12"/>
-      <c r="Q25" s="8" t="str">
+      <c r="C25" s="5"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="11"/>
+      <c r="I25" s="10"/>
+      <c r="J25" s="11"/>
+      <c r="K25" s="10"/>
+      <c r="L25" s="11"/>
+      <c r="M25" s="10"/>
+      <c r="N25" s="11"/>
+      <c r="O25" s="10"/>
+      <c r="P25" s="11"/>
+      <c r="Q25" s="5" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="R25" s="12"/>
-      <c r="S25" s="12"/>
-      <c r="T25" s="12"/>
-      <c r="U25" s="12"/>
-      <c r="V25" s="12"/>
+      <c r="R25" s="11"/>
+      <c r="S25" s="11"/>
+      <c r="T25" s="11"/>
+      <c r="U25" s="11"/>
+      <c r="V25" s="11"/>
     </row>
     <row r="26" spans="3:22">
-      <c r="C26" s="8"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="12"/>
-      <c r="F26" s="12"/>
-      <c r="G26" s="11"/>
-      <c r="H26" s="12"/>
-      <c r="I26" s="11"/>
-      <c r="J26" s="12"/>
-      <c r="K26" s="11"/>
-      <c r="L26" s="12"/>
-      <c r="M26" s="11"/>
-      <c r="N26" s="12"/>
-      <c r="O26" s="11"/>
-      <c r="P26" s="12"/>
-      <c r="Q26" s="8" t="str">
+      <c r="C26" s="5"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="11"/>
+      <c r="I26" s="10"/>
+      <c r="J26" s="11"/>
+      <c r="K26" s="10"/>
+      <c r="L26" s="11"/>
+      <c r="M26" s="10"/>
+      <c r="N26" s="11"/>
+      <c r="O26" s="10"/>
+      <c r="P26" s="11"/>
+      <c r="Q26" s="5" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="R26" s="12"/>
-      <c r="S26" s="12"/>
-      <c r="T26" s="12"/>
-      <c r="U26" s="12"/>
-      <c r="V26" s="12"/>
+      <c r="R26" s="11"/>
+      <c r="S26" s="11"/>
+      <c r="T26" s="11"/>
+      <c r="U26" s="11"/>
+      <c r="V26" s="11"/>
     </row>
     <row r="27" spans="3:22">
-      <c r="C27" s="8"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="12"/>
-      <c r="F27" s="12"/>
-      <c r="G27" s="11"/>
-      <c r="H27" s="12"/>
-      <c r="I27" s="11"/>
-      <c r="J27" s="12"/>
-      <c r="K27" s="11"/>
-      <c r="L27" s="12"/>
-      <c r="M27" s="11"/>
-      <c r="N27" s="12"/>
-      <c r="O27" s="11"/>
-      <c r="P27" s="12"/>
-      <c r="Q27" s="8" t="str">
+      <c r="C27" s="5"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="11"/>
+      <c r="I27" s="10"/>
+      <c r="J27" s="11"/>
+      <c r="K27" s="10"/>
+      <c r="L27" s="11"/>
+      <c r="M27" s="10"/>
+      <c r="N27" s="11"/>
+      <c r="O27" s="10"/>
+      <c r="P27" s="11"/>
+      <c r="Q27" s="5" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="R27" s="12"/>
-      <c r="S27" s="12"/>
-      <c r="T27" s="12"/>
-      <c r="U27" s="12"/>
-      <c r="V27" s="12"/>
+      <c r="R27" s="11"/>
+      <c r="S27" s="11"/>
+      <c r="T27" s="11"/>
+      <c r="U27" s="11"/>
+      <c r="V27" s="11"/>
     </row>
     <row r="28" spans="3:22">
-      <c r="C28" s="8"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="12"/>
-      <c r="F28" s="12"/>
-      <c r="G28" s="11"/>
-      <c r="H28" s="12"/>
-      <c r="I28" s="11"/>
-      <c r="J28" s="12"/>
-      <c r="K28" s="11"/>
-      <c r="L28" s="12"/>
-      <c r="M28" s="11"/>
-      <c r="N28" s="12"/>
-      <c r="O28" s="11"/>
-      <c r="P28" s="12"/>
-      <c r="Q28" s="8" t="str">
+      <c r="C28" s="5"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="10"/>
+      <c r="H28" s="11"/>
+      <c r="I28" s="10"/>
+      <c r="J28" s="11"/>
+      <c r="K28" s="10"/>
+      <c r="L28" s="11"/>
+      <c r="M28" s="10"/>
+      <c r="N28" s="11"/>
+      <c r="O28" s="10"/>
+      <c r="P28" s="11"/>
+      <c r="Q28" s="5" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="R28" s="12"/>
-      <c r="S28" s="12"/>
-      <c r="T28" s="12"/>
-      <c r="U28" s="12"/>
-      <c r="V28" s="12"/>
+      <c r="R28" s="11"/>
+      <c r="S28" s="11"/>
+      <c r="T28" s="11"/>
+      <c r="U28" s="11"/>
+      <c r="V28" s="11"/>
     </row>
     <row r="29" spans="3:22">
-      <c r="C29" s="8"/>
-      <c r="D29" s="9"/>
-      <c r="E29" s="12"/>
-      <c r="F29" s="12"/>
-      <c r="G29" s="11"/>
-      <c r="H29" s="12"/>
-      <c r="I29" s="11"/>
-      <c r="J29" s="12"/>
-      <c r="K29" s="11"/>
-      <c r="L29" s="12"/>
-      <c r="M29" s="11"/>
-      <c r="N29" s="12"/>
-      <c r="O29" s="11"/>
-      <c r="P29" s="12"/>
-      <c r="Q29" s="8" t="str">
+      <c r="C29" s="5"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="10"/>
+      <c r="H29" s="11"/>
+      <c r="I29" s="10"/>
+      <c r="J29" s="11"/>
+      <c r="K29" s="10"/>
+      <c r="L29" s="11"/>
+      <c r="M29" s="10"/>
+      <c r="N29" s="11"/>
+      <c r="O29" s="10"/>
+      <c r="P29" s="11"/>
+      <c r="Q29" s="5" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="R29" s="12"/>
-      <c r="S29" s="12"/>
-      <c r="T29" s="12"/>
-      <c r="U29" s="12"/>
-      <c r="V29" s="12"/>
+      <c r="R29" s="11"/>
+      <c r="S29" s="11"/>
+      <c r="T29" s="11"/>
+      <c r="U29" s="11"/>
+      <c r="V29" s="11"/>
     </row>
     <row r="30" spans="3:22">
-      <c r="C30" s="8"/>
-      <c r="D30" s="9"/>
-      <c r="E30" s="12"/>
-      <c r="F30" s="12"/>
-      <c r="G30" s="11"/>
-      <c r="H30" s="12"/>
-      <c r="I30" s="11"/>
-      <c r="J30" s="12"/>
-      <c r="K30" s="11"/>
-      <c r="L30" s="12"/>
-      <c r="M30" s="11"/>
-      <c r="N30" s="12"/>
-      <c r="O30" s="11"/>
-      <c r="P30" s="12"/>
-      <c r="Q30" s="8" t="str">
+      <c r="C30" s="5"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="10"/>
+      <c r="H30" s="11"/>
+      <c r="I30" s="10"/>
+      <c r="J30" s="11"/>
+      <c r="K30" s="10"/>
+      <c r="L30" s="11"/>
+      <c r="M30" s="10"/>
+      <c r="N30" s="11"/>
+      <c r="O30" s="10"/>
+      <c r="P30" s="11"/>
+      <c r="Q30" s="5" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="R30" s="12"/>
-      <c r="S30" s="12"/>
-      <c r="T30" s="12"/>
-      <c r="U30" s="12"/>
-      <c r="V30" s="12"/>
+      <c r="R30" s="11"/>
+      <c r="S30" s="11"/>
+      <c r="T30" s="11"/>
+      <c r="U30" s="11"/>
+      <c r="V30" s="11"/>
     </row>
     <row r="31" spans="3:22">
-      <c r="C31" s="8"/>
-      <c r="D31" s="9"/>
-      <c r="E31" s="12"/>
-      <c r="F31" s="12"/>
-      <c r="G31" s="11"/>
-      <c r="H31" s="12"/>
-      <c r="I31" s="11"/>
-      <c r="J31" s="12"/>
-      <c r="K31" s="11"/>
-      <c r="L31" s="12"/>
-      <c r="M31" s="11"/>
-      <c r="N31" s="12"/>
-      <c r="O31" s="11"/>
-      <c r="P31" s="12"/>
-      <c r="Q31" s="8" t="str">
+      <c r="C31" s="5"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="11"/>
+      <c r="I31" s="10"/>
+      <c r="J31" s="11"/>
+      <c r="K31" s="10"/>
+      <c r="L31" s="11"/>
+      <c r="M31" s="10"/>
+      <c r="N31" s="11"/>
+      <c r="O31" s="10"/>
+      <c r="P31" s="11"/>
+      <c r="Q31" s="5" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="R31" s="12"/>
-      <c r="S31" s="12"/>
-      <c r="T31" s="12"/>
-      <c r="U31" s="12"/>
-      <c r="V31" s="12"/>
+      <c r="R31" s="11"/>
+      <c r="S31" s="11"/>
+      <c r="T31" s="11"/>
+      <c r="U31" s="11"/>
+      <c r="V31" s="11"/>
     </row>
     <row r="32" spans="3:22">
-      <c r="C32" s="8"/>
-      <c r="D32" s="9"/>
-      <c r="E32" s="12"/>
-      <c r="F32" s="12"/>
-      <c r="G32" s="11"/>
-      <c r="H32" s="12"/>
-      <c r="I32" s="11"/>
-      <c r="J32" s="12"/>
-      <c r="K32" s="11"/>
-      <c r="L32" s="12"/>
-      <c r="M32" s="11"/>
-      <c r="N32" s="12"/>
-      <c r="O32" s="11"/>
-      <c r="P32" s="12"/>
-      <c r="Q32" s="8" t="str">
+      <c r="C32" s="5"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="10"/>
+      <c r="H32" s="11"/>
+      <c r="I32" s="10"/>
+      <c r="J32" s="11"/>
+      <c r="K32" s="10"/>
+      <c r="L32" s="11"/>
+      <c r="M32" s="10"/>
+      <c r="N32" s="11"/>
+      <c r="O32" s="10"/>
+      <c r="P32" s="11"/>
+      <c r="Q32" s="5" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="R32" s="12"/>
-      <c r="S32" s="12"/>
-      <c r="T32" s="12"/>
-      <c r="U32" s="12"/>
-      <c r="V32" s="12"/>
+      <c r="R32" s="11"/>
+      <c r="S32" s="11"/>
+      <c r="T32" s="11"/>
+      <c r="U32" s="11"/>
+      <c r="V32" s="11"/>
     </row>
     <row r="33" spans="3:22">
-      <c r="C33" s="8"/>
-      <c r="D33" s="9"/>
-      <c r="E33" s="12"/>
-      <c r="F33" s="12"/>
-      <c r="G33" s="11"/>
-      <c r="H33" s="12"/>
-      <c r="I33" s="11"/>
-      <c r="J33" s="12"/>
-      <c r="K33" s="11"/>
-      <c r="L33" s="12"/>
-      <c r="M33" s="11"/>
-      <c r="N33" s="12"/>
-      <c r="O33" s="11"/>
-      <c r="P33" s="12"/>
-      <c r="Q33" s="8" t="str">
+      <c r="C33" s="5"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="11"/>
+      <c r="G33" s="10"/>
+      <c r="H33" s="11"/>
+      <c r="I33" s="10"/>
+      <c r="J33" s="11"/>
+      <c r="K33" s="10"/>
+      <c r="L33" s="11"/>
+      <c r="M33" s="10"/>
+      <c r="N33" s="11"/>
+      <c r="O33" s="10"/>
+      <c r="P33" s="11"/>
+      <c r="Q33" s="5" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="R33" s="12"/>
-      <c r="S33" s="12"/>
-      <c r="T33" s="12"/>
-      <c r="U33" s="12"/>
-      <c r="V33" s="12"/>
+      <c r="R33" s="11"/>
+      <c r="S33" s="11"/>
+      <c r="T33" s="11"/>
+      <c r="U33" s="11"/>
+      <c r="V33" s="11"/>
     </row>
     <row r="34" spans="3:22">
-      <c r="C34" s="8"/>
-      <c r="D34" s="9"/>
-      <c r="E34" s="12"/>
-      <c r="F34" s="12"/>
-      <c r="G34" s="11"/>
-      <c r="H34" s="12"/>
-      <c r="I34" s="11"/>
-      <c r="J34" s="12"/>
-      <c r="K34" s="11"/>
-      <c r="L34" s="12"/>
-      <c r="M34" s="11"/>
-      <c r="N34" s="12"/>
-      <c r="O34" s="11"/>
-      <c r="P34" s="12"/>
-      <c r="Q34" s="8" t="str">
+      <c r="C34" s="5"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="11"/>
+      <c r="F34" s="11"/>
+      <c r="G34" s="10"/>
+      <c r="H34" s="11"/>
+      <c r="I34" s="10"/>
+      <c r="J34" s="11"/>
+      <c r="K34" s="10"/>
+      <c r="L34" s="11"/>
+      <c r="M34" s="10"/>
+      <c r="N34" s="11"/>
+      <c r="O34" s="10"/>
+      <c r="P34" s="11"/>
+      <c r="Q34" s="5" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="R34" s="12"/>
-      <c r="S34" s="12"/>
-      <c r="T34" s="12"/>
-      <c r="U34" s="12"/>
-      <c r="V34" s="12"/>
+      <c r="R34" s="11"/>
+      <c r="S34" s="11"/>
+      <c r="T34" s="11"/>
+      <c r="U34" s="11"/>
+      <c r="V34" s="11"/>
     </row>
     <row r="35" spans="3:22">
-      <c r="C35" s="8"/>
-      <c r="D35" s="9"/>
-      <c r="E35" s="12"/>
-      <c r="F35" s="12"/>
-      <c r="G35" s="11"/>
-      <c r="H35" s="12"/>
-      <c r="I35" s="11"/>
-      <c r="J35" s="12"/>
-      <c r="K35" s="11"/>
-      <c r="L35" s="12"/>
-      <c r="M35" s="11"/>
-      <c r="N35" s="12"/>
-      <c r="O35" s="11"/>
-      <c r="P35" s="12"/>
-      <c r="Q35" s="8" t="str">
+      <c r="C35" s="5"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="11"/>
+      <c r="F35" s="11"/>
+      <c r="G35" s="10"/>
+      <c r="H35" s="11"/>
+      <c r="I35" s="10"/>
+      <c r="J35" s="11"/>
+      <c r="K35" s="10"/>
+      <c r="L35" s="11"/>
+      <c r="M35" s="10"/>
+      <c r="N35" s="11"/>
+      <c r="O35" s="10"/>
+      <c r="P35" s="11"/>
+      <c r="Q35" s="5" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="R35" s="12"/>
-      <c r="S35" s="12"/>
-      <c r="T35" s="12"/>
-      <c r="U35" s="12"/>
-      <c r="V35" s="12"/>
+      <c r="R35" s="11"/>
+      <c r="S35" s="11"/>
+      <c r="T35" s="11"/>
+      <c r="U35" s="11"/>
+      <c r="V35" s="11"/>
     </row>
     <row r="36" spans="3:22">
-      <c r="C36" s="8"/>
-      <c r="D36" s="9"/>
-      <c r="E36" s="12"/>
-      <c r="F36" s="12"/>
-      <c r="G36" s="11"/>
-      <c r="H36" s="12"/>
-      <c r="I36" s="11"/>
-      <c r="J36" s="12"/>
-      <c r="K36" s="11"/>
-      <c r="L36" s="12"/>
-      <c r="M36" s="11"/>
-      <c r="N36" s="12"/>
-      <c r="O36" s="11"/>
-      <c r="P36" s="12"/>
-      <c r="Q36" s="8" t="str">
+      <c r="C36" s="5"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="11"/>
+      <c r="G36" s="10"/>
+      <c r="H36" s="11"/>
+      <c r="I36" s="10"/>
+      <c r="J36" s="11"/>
+      <c r="K36" s="10"/>
+      <c r="L36" s="11"/>
+      <c r="M36" s="10"/>
+      <c r="N36" s="11"/>
+      <c r="O36" s="10"/>
+      <c r="P36" s="11"/>
+      <c r="Q36" s="5" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="R36" s="12"/>
-      <c r="S36" s="12"/>
-      <c r="T36" s="12"/>
-      <c r="U36" s="12"/>
-      <c r="V36" s="12"/>
+      <c r="R36" s="11"/>
+      <c r="S36" s="11"/>
+      <c r="T36" s="11"/>
+      <c r="U36" s="11"/>
+      <c r="V36" s="11"/>
     </row>
     <row r="37" spans="3:22">
-      <c r="C37" s="8"/>
-      <c r="D37" s="9"/>
-      <c r="E37" s="12"/>
-      <c r="F37" s="12"/>
-      <c r="G37" s="11"/>
-      <c r="H37" s="12"/>
-      <c r="I37" s="11"/>
-      <c r="J37" s="12"/>
-      <c r="K37" s="11"/>
-      <c r="L37" s="12"/>
-      <c r="M37" s="11"/>
-      <c r="N37" s="12"/>
-      <c r="O37" s="11"/>
-      <c r="P37" s="12"/>
-      <c r="Q37" s="8" t="str">
+      <c r="C37" s="5"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="11"/>
+      <c r="F37" s="11"/>
+      <c r="G37" s="10"/>
+      <c r="H37" s="11"/>
+      <c r="I37" s="10"/>
+      <c r="J37" s="11"/>
+      <c r="K37" s="10"/>
+      <c r="L37" s="11"/>
+      <c r="M37" s="10"/>
+      <c r="N37" s="11"/>
+      <c r="O37" s="10"/>
+      <c r="P37" s="11"/>
+      <c r="Q37" s="5" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="R37" s="12"/>
-      <c r="S37" s="12"/>
-      <c r="T37" s="12"/>
-      <c r="U37" s="12"/>
-      <c r="V37" s="12"/>
+      <c r="R37" s="11"/>
+      <c r="S37" s="11"/>
+      <c r="T37" s="11"/>
+      <c r="U37" s="11"/>
+      <c r="V37" s="11"/>
     </row>
     <row r="38" spans="3:22">
-      <c r="C38" s="8"/>
-      <c r="D38" s="9"/>
-      <c r="E38" s="12"/>
-      <c r="F38" s="12"/>
-      <c r="G38" s="11"/>
-      <c r="H38" s="12"/>
-      <c r="I38" s="11"/>
-      <c r="J38" s="12"/>
-      <c r="K38" s="11"/>
-      <c r="L38" s="12"/>
-      <c r="M38" s="11"/>
-      <c r="N38" s="12"/>
-      <c r="O38" s="11"/>
-      <c r="P38" s="12"/>
-      <c r="Q38" s="8" t="str">
+      <c r="C38" s="5"/>
+      <c r="D38" s="6"/>
+      <c r="E38" s="11"/>
+      <c r="F38" s="11"/>
+      <c r="G38" s="10"/>
+      <c r="H38" s="11"/>
+      <c r="I38" s="10"/>
+      <c r="J38" s="11"/>
+      <c r="K38" s="10"/>
+      <c r="L38" s="11"/>
+      <c r="M38" s="10"/>
+      <c r="N38" s="11"/>
+      <c r="O38" s="10"/>
+      <c r="P38" s="11"/>
+      <c r="Q38" s="5" t="str">
         <f t="shared" ref="Q38:Q69" si="1">_xlfn.TEXTJOIN(",",TRUE,H38,J38,L38,N38,P38)</f>
         <v/>
       </c>
-      <c r="R38" s="12"/>
-      <c r="S38" s="12"/>
-      <c r="T38" s="12"/>
-      <c r="U38" s="12"/>
-      <c r="V38" s="12"/>
+      <c r="R38" s="11"/>
+      <c r="S38" s="11"/>
+      <c r="T38" s="11"/>
+      <c r="U38" s="11"/>
+      <c r="V38" s="11"/>
     </row>
     <row r="39" spans="3:22">
-      <c r="C39" s="8"/>
-      <c r="D39" s="12"/>
-      <c r="E39" s="12"/>
-      <c r="F39" s="12"/>
-      <c r="G39" s="11"/>
-      <c r="H39" s="12"/>
-      <c r="I39" s="11"/>
-      <c r="J39" s="12"/>
-      <c r="K39" s="11"/>
-      <c r="L39" s="12"/>
-      <c r="M39" s="11"/>
-      <c r="N39" s="12"/>
-      <c r="O39" s="11"/>
-      <c r="P39" s="12"/>
-      <c r="Q39" s="8" t="str">
+      <c r="C39" s="5"/>
+      <c r="D39" s="11"/>
+      <c r="E39" s="11"/>
+      <c r="F39" s="11"/>
+      <c r="G39" s="10"/>
+      <c r="H39" s="11"/>
+      <c r="I39" s="10"/>
+      <c r="J39" s="11"/>
+      <c r="K39" s="10"/>
+      <c r="L39" s="11"/>
+      <c r="M39" s="10"/>
+      <c r="N39" s="11"/>
+      <c r="O39" s="10"/>
+      <c r="P39" s="11"/>
+      <c r="Q39" s="5" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="R39" s="12"/>
-      <c r="S39" s="12"/>
-      <c r="T39" s="12"/>
-      <c r="U39" s="12"/>
-      <c r="V39" s="12"/>
+      <c r="R39" s="11"/>
+      <c r="S39" s="11"/>
+      <c r="T39" s="11"/>
+      <c r="U39" s="11"/>
+      <c r="V39" s="11"/>
     </row>
     <row r="40" spans="3:22">
-      <c r="C40" s="8"/>
-      <c r="D40" s="12"/>
-      <c r="E40" s="12"/>
-      <c r="F40" s="12"/>
-      <c r="G40" s="11"/>
-      <c r="H40" s="12"/>
-      <c r="I40" s="11"/>
-      <c r="J40" s="12"/>
-      <c r="K40" s="11"/>
-      <c r="L40" s="12"/>
-      <c r="M40" s="11"/>
-      <c r="N40" s="12"/>
-      <c r="O40" s="11"/>
-      <c r="P40" s="12"/>
-      <c r="Q40" s="8" t="str">
+      <c r="C40" s="5"/>
+      <c r="D40" s="11"/>
+      <c r="E40" s="11"/>
+      <c r="F40" s="11"/>
+      <c r="G40" s="10"/>
+      <c r="H40" s="11"/>
+      <c r="I40" s="10"/>
+      <c r="J40" s="11"/>
+      <c r="K40" s="10"/>
+      <c r="L40" s="11"/>
+      <c r="M40" s="10"/>
+      <c r="N40" s="11"/>
+      <c r="O40" s="10"/>
+      <c r="P40" s="11"/>
+      <c r="Q40" s="5" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="R40" s="12"/>
-      <c r="S40" s="12"/>
-      <c r="T40" s="12"/>
-      <c r="U40" s="12"/>
-      <c r="V40" s="12"/>
+      <c r="R40" s="11"/>
+      <c r="S40" s="11"/>
+      <c r="T40" s="11"/>
+      <c r="U40" s="11"/>
+      <c r="V40" s="11"/>
     </row>
     <row r="41" spans="3:22">
-      <c r="C41" s="8"/>
-      <c r="D41" s="12"/>
-      <c r="E41" s="12"/>
-      <c r="F41" s="12"/>
-      <c r="G41" s="11"/>
-      <c r="H41" s="12"/>
-      <c r="I41" s="11"/>
-      <c r="J41" s="12"/>
-      <c r="K41" s="11"/>
-      <c r="L41" s="12"/>
-      <c r="M41" s="11"/>
-      <c r="N41" s="12"/>
-      <c r="O41" s="11"/>
-      <c r="P41" s="12"/>
-      <c r="Q41" s="8" t="str">
+      <c r="C41" s="5"/>
+      <c r="D41" s="11"/>
+      <c r="E41" s="11"/>
+      <c r="F41" s="11"/>
+      <c r="G41" s="10"/>
+      <c r="H41" s="11"/>
+      <c r="I41" s="10"/>
+      <c r="J41" s="11"/>
+      <c r="K41" s="10"/>
+      <c r="L41" s="11"/>
+      <c r="M41" s="10"/>
+      <c r="N41" s="11"/>
+      <c r="O41" s="10"/>
+      <c r="P41" s="11"/>
+      <c r="Q41" s="5" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="R41" s="12"/>
-      <c r="S41" s="12"/>
-      <c r="T41" s="12"/>
-      <c r="U41" s="12"/>
-      <c r="V41" s="12"/>
+      <c r="R41" s="11"/>
+      <c r="S41" s="11"/>
+      <c r="T41" s="11"/>
+      <c r="U41" s="11"/>
+      <c r="V41" s="11"/>
     </row>
     <row r="42" spans="3:22">
-      <c r="C42" s="8"/>
-      <c r="D42" s="12"/>
-      <c r="E42" s="12"/>
-      <c r="F42" s="12"/>
-      <c r="G42" s="11"/>
-      <c r="H42" s="12"/>
-      <c r="I42" s="11"/>
-      <c r="J42" s="12"/>
-      <c r="K42" s="11"/>
-      <c r="L42" s="12"/>
-      <c r="M42" s="11"/>
-      <c r="N42" s="12"/>
-      <c r="O42" s="11"/>
-      <c r="P42" s="12"/>
-      <c r="Q42" s="8" t="str">
+      <c r="C42" s="5"/>
+      <c r="D42" s="11"/>
+      <c r="E42" s="11"/>
+      <c r="F42" s="11"/>
+      <c r="G42" s="10"/>
+      <c r="H42" s="11"/>
+      <c r="I42" s="10"/>
+      <c r="J42" s="11"/>
+      <c r="K42" s="10"/>
+      <c r="L42" s="11"/>
+      <c r="M42" s="10"/>
+      <c r="N42" s="11"/>
+      <c r="O42" s="10"/>
+      <c r="P42" s="11"/>
+      <c r="Q42" s="5" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="R42" s="12"/>
-      <c r="S42" s="12"/>
-      <c r="T42" s="12"/>
-      <c r="U42" s="12"/>
-      <c r="V42" s="12"/>
+      <c r="R42" s="11"/>
+      <c r="S42" s="11"/>
+      <c r="T42" s="11"/>
+      <c r="U42" s="11"/>
+      <c r="V42" s="11"/>
     </row>
     <row r="43" spans="3:22">
-      <c r="C43" s="12"/>
-      <c r="D43" s="12"/>
-      <c r="E43" s="12"/>
-      <c r="F43" s="12"/>
-      <c r="G43" s="11"/>
-      <c r="H43" s="12"/>
-      <c r="I43" s="11"/>
-      <c r="J43" s="12"/>
-      <c r="K43" s="11"/>
-      <c r="L43" s="12"/>
-      <c r="M43" s="11"/>
-      <c r="N43" s="12"/>
-      <c r="O43" s="11"/>
-      <c r="P43" s="12"/>
-      <c r="Q43" s="8" t="str">
+      <c r="C43" s="11"/>
+      <c r="D43" s="11"/>
+      <c r="E43" s="11"/>
+      <c r="F43" s="11"/>
+      <c r="G43" s="10"/>
+      <c r="H43" s="11"/>
+      <c r="I43" s="10"/>
+      <c r="J43" s="11"/>
+      <c r="K43" s="10"/>
+      <c r="L43" s="11"/>
+      <c r="M43" s="10"/>
+      <c r="N43" s="11"/>
+      <c r="O43" s="10"/>
+      <c r="P43" s="11"/>
+      <c r="Q43" s="5" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="R43" s="12"/>
-      <c r="S43" s="12"/>
-      <c r="T43" s="12"/>
-      <c r="U43" s="12"/>
-      <c r="V43" s="12"/>
+      <c r="R43" s="11"/>
+      <c r="S43" s="11"/>
+      <c r="T43" s="11"/>
+      <c r="U43" s="11"/>
+      <c r="V43" s="11"/>
     </row>
     <row r="44" spans="3:22">
-      <c r="C44" s="12"/>
-      <c r="D44" s="12"/>
-      <c r="E44" s="12"/>
-      <c r="F44" s="12"/>
-      <c r="G44" s="11"/>
-      <c r="H44" s="12"/>
-      <c r="I44" s="11"/>
-      <c r="J44" s="12"/>
-      <c r="K44" s="11"/>
-      <c r="L44" s="12"/>
-      <c r="M44" s="11"/>
-      <c r="N44" s="12"/>
-      <c r="O44" s="11"/>
-      <c r="P44" s="12"/>
-      <c r="Q44" s="8" t="str">
+      <c r="C44" s="11"/>
+      <c r="D44" s="11"/>
+      <c r="E44" s="11"/>
+      <c r="F44" s="11"/>
+      <c r="G44" s="10"/>
+      <c r="H44" s="11"/>
+      <c r="I44" s="10"/>
+      <c r="J44" s="11"/>
+      <c r="K44" s="10"/>
+      <c r="L44" s="11"/>
+      <c r="M44" s="10"/>
+      <c r="N44" s="11"/>
+      <c r="O44" s="10"/>
+      <c r="P44" s="11"/>
+      <c r="Q44" s="5" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="R44" s="12"/>
-      <c r="S44" s="12"/>
-      <c r="T44" s="12"/>
-      <c r="U44" s="12"/>
-      <c r="V44" s="12"/>
+      <c r="R44" s="11"/>
+      <c r="S44" s="11"/>
+      <c r="T44" s="11"/>
+      <c r="U44" s="11"/>
+      <c r="V44" s="11"/>
     </row>
     <row r="45" spans="3:22">
-      <c r="C45" s="12"/>
-      <c r="D45" s="12"/>
-      <c r="E45" s="12"/>
-      <c r="F45" s="12"/>
-      <c r="G45" s="11"/>
-      <c r="H45" s="12"/>
-      <c r="I45" s="11"/>
-      <c r="J45" s="12"/>
-      <c r="K45" s="11"/>
-      <c r="L45" s="12"/>
-      <c r="M45" s="11"/>
-      <c r="N45" s="12"/>
-      <c r="O45" s="11"/>
-      <c r="P45" s="12"/>
-      <c r="Q45" s="8" t="str">
+      <c r="C45" s="11"/>
+      <c r="D45" s="11"/>
+      <c r="E45" s="11"/>
+      <c r="F45" s="11"/>
+      <c r="G45" s="10"/>
+      <c r="H45" s="11"/>
+      <c r="I45" s="10"/>
+      <c r="J45" s="11"/>
+      <c r="K45" s="10"/>
+      <c r="L45" s="11"/>
+      <c r="M45" s="10"/>
+      <c r="N45" s="11"/>
+      <c r="O45" s="10"/>
+      <c r="P45" s="11"/>
+      <c r="Q45" s="5" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="R45" s="12"/>
-      <c r="S45" s="12"/>
-      <c r="T45" s="12"/>
-      <c r="U45" s="12"/>
-      <c r="V45" s="12"/>
+      <c r="R45" s="11"/>
+      <c r="S45" s="11"/>
+      <c r="T45" s="11"/>
+      <c r="U45" s="11"/>
+      <c r="V45" s="11"/>
     </row>
     <row r="46" spans="3:22">
-      <c r="C46" s="12"/>
-      <c r="D46" s="12"/>
-      <c r="E46" s="12"/>
-      <c r="F46" s="12"/>
-      <c r="G46" s="11"/>
-      <c r="H46" s="12"/>
-      <c r="I46" s="11"/>
-      <c r="J46" s="12"/>
-      <c r="K46" s="11"/>
-      <c r="L46" s="12"/>
-      <c r="M46" s="11"/>
-      <c r="N46" s="12"/>
-      <c r="O46" s="11"/>
-      <c r="P46" s="12"/>
-      <c r="Q46" s="8" t="str">
+      <c r="C46" s="11"/>
+      <c r="D46" s="11"/>
+      <c r="E46" s="11"/>
+      <c r="F46" s="11"/>
+      <c r="G46" s="10"/>
+      <c r="H46" s="11"/>
+      <c r="I46" s="10"/>
+      <c r="J46" s="11"/>
+      <c r="K46" s="10"/>
+      <c r="L46" s="11"/>
+      <c r="M46" s="10"/>
+      <c r="N46" s="11"/>
+      <c r="O46" s="10"/>
+      <c r="P46" s="11"/>
+      <c r="Q46" s="5" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="R46" s="12"/>
-      <c r="S46" s="12"/>
-      <c r="T46" s="12"/>
-      <c r="U46" s="12"/>
-      <c r="V46" s="12"/>
+      <c r="R46" s="11"/>
+      <c r="S46" s="11"/>
+      <c r="T46" s="11"/>
+      <c r="U46" s="11"/>
+      <c r="V46" s="11"/>
     </row>
     <row r="47" spans="3:22">
-      <c r="C47" s="12"/>
-      <c r="D47" s="12"/>
-      <c r="E47" s="12"/>
-      <c r="F47" s="12"/>
-      <c r="G47" s="11"/>
-      <c r="H47" s="12"/>
-      <c r="I47" s="11"/>
-      <c r="J47" s="12"/>
-      <c r="K47" s="11"/>
-      <c r="L47" s="12"/>
-      <c r="M47" s="11"/>
-      <c r="N47" s="12"/>
-      <c r="O47" s="11"/>
-      <c r="P47" s="12"/>
-      <c r="Q47" s="8" t="str">
+      <c r="C47" s="11"/>
+      <c r="D47" s="11"/>
+      <c r="E47" s="11"/>
+      <c r="F47" s="11"/>
+      <c r="G47" s="10"/>
+      <c r="H47" s="11"/>
+      <c r="I47" s="10"/>
+      <c r="J47" s="11"/>
+      <c r="K47" s="10"/>
+      <c r="L47" s="11"/>
+      <c r="M47" s="10"/>
+      <c r="N47" s="11"/>
+      <c r="O47" s="10"/>
+      <c r="P47" s="11"/>
+      <c r="Q47" s="5" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="R47" s="12"/>
-      <c r="S47" s="12"/>
-      <c r="T47" s="12"/>
-      <c r="U47" s="12"/>
-      <c r="V47" s="12"/>
+      <c r="R47" s="11"/>
+      <c r="S47" s="11"/>
+      <c r="T47" s="11"/>
+      <c r="U47" s="11"/>
+      <c r="V47" s="11"/>
     </row>
     <row r="48" spans="3:22">
-      <c r="C48" s="12"/>
-      <c r="D48" s="12"/>
-      <c r="E48" s="12"/>
-      <c r="F48" s="12"/>
-      <c r="G48" s="11"/>
-      <c r="H48" s="12"/>
-      <c r="I48" s="11"/>
-      <c r="J48" s="12"/>
-      <c r="K48" s="11"/>
-      <c r="L48" s="12"/>
-      <c r="M48" s="11"/>
-      <c r="N48" s="12"/>
-      <c r="O48" s="11"/>
-      <c r="P48" s="12"/>
-      <c r="Q48" s="8" t="str">
+      <c r="C48" s="11"/>
+      <c r="D48" s="11"/>
+      <c r="E48" s="11"/>
+      <c r="F48" s="11"/>
+      <c r="G48" s="10"/>
+      <c r="H48" s="11"/>
+      <c r="I48" s="10"/>
+      <c r="J48" s="11"/>
+      <c r="K48" s="10"/>
+      <c r="L48" s="11"/>
+      <c r="M48" s="10"/>
+      <c r="N48" s="11"/>
+      <c r="O48" s="10"/>
+      <c r="P48" s="11"/>
+      <c r="Q48" s="5" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="R48" s="12"/>
-      <c r="S48" s="12"/>
-      <c r="T48" s="12"/>
-      <c r="U48" s="12"/>
-      <c r="V48" s="12"/>
+      <c r="R48" s="11"/>
+      <c r="S48" s="11"/>
+      <c r="T48" s="11"/>
+      <c r="U48" s="11"/>
+      <c r="V48" s="11"/>
     </row>
     <row r="49" spans="3:22">
-      <c r="C49" s="12"/>
-      <c r="D49" s="12"/>
-      <c r="E49" s="12"/>
-      <c r="F49" s="12"/>
-      <c r="G49" s="11"/>
-      <c r="H49" s="12"/>
-      <c r="I49" s="11"/>
-      <c r="J49" s="12"/>
-      <c r="K49" s="11"/>
-      <c r="L49" s="12"/>
-      <c r="M49" s="11"/>
-      <c r="N49" s="12"/>
-      <c r="O49" s="11"/>
-      <c r="P49" s="12"/>
-      <c r="Q49" s="8" t="str">
+      <c r="C49" s="11"/>
+      <c r="D49" s="11"/>
+      <c r="E49" s="11"/>
+      <c r="F49" s="11"/>
+      <c r="G49" s="10"/>
+      <c r="H49" s="11"/>
+      <c r="I49" s="10"/>
+      <c r="J49" s="11"/>
+      <c r="K49" s="10"/>
+      <c r="L49" s="11"/>
+      <c r="M49" s="10"/>
+      <c r="N49" s="11"/>
+      <c r="O49" s="10"/>
+      <c r="P49" s="11"/>
+      <c r="Q49" s="5" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="R49" s="12"/>
-      <c r="S49" s="12"/>
-      <c r="T49" s="12"/>
-      <c r="U49" s="12"/>
-      <c r="V49" s="12"/>
+      <c r="R49" s="11"/>
+      <c r="S49" s="11"/>
+      <c r="T49" s="11"/>
+      <c r="U49" s="11"/>
+      <c r="V49" s="11"/>
     </row>
     <row r="50" spans="3:22">
-      <c r="C50" s="12"/>
-      <c r="D50" s="12"/>
-      <c r="E50" s="12"/>
-      <c r="F50" s="12"/>
-      <c r="G50" s="11"/>
-      <c r="H50" s="12"/>
-      <c r="I50" s="11"/>
-      <c r="J50" s="12"/>
-      <c r="K50" s="11"/>
-      <c r="L50" s="12"/>
-      <c r="M50" s="11"/>
-      <c r="N50" s="12"/>
-      <c r="O50" s="11"/>
-      <c r="P50" s="12"/>
-      <c r="Q50" s="8" t="str">
+      <c r="C50" s="11"/>
+      <c r="D50" s="11"/>
+      <c r="E50" s="11"/>
+      <c r="F50" s="11"/>
+      <c r="G50" s="10"/>
+      <c r="H50" s="11"/>
+      <c r="I50" s="10"/>
+      <c r="J50" s="11"/>
+      <c r="K50" s="10"/>
+      <c r="L50" s="11"/>
+      <c r="M50" s="10"/>
+      <c r="N50" s="11"/>
+      <c r="O50" s="10"/>
+      <c r="P50" s="11"/>
+      <c r="Q50" s="5" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="R50" s="12"/>
-      <c r="S50" s="12"/>
-      <c r="T50" s="12"/>
-      <c r="U50" s="12"/>
-      <c r="V50" s="12"/>
+      <c r="R50" s="11"/>
+      <c r="S50" s="11"/>
+      <c r="T50" s="11"/>
+      <c r="U50" s="11"/>
+      <c r="V50" s="11"/>
     </row>
     <row r="51" spans="17:17">
-      <c r="Q51" s="8" t="str">
+      <c r="Q51" s="5" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="52" spans="17:17">
-      <c r="Q52" s="8" t="str">
+      <c r="Q52" s="5" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="53" spans="17:17">
-      <c r="Q53" s="8" t="str">
+      <c r="Q53" s="5" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="54" spans="17:17">
-      <c r="Q54" s="8" t="str">
+      <c r="Q54" s="5" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="55" spans="17:17">
-      <c r="Q55" s="8" t="str">
+      <c r="Q55" s="5" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="56" spans="17:17">
-      <c r="Q56" s="8" t="str">
+      <c r="Q56" s="5" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="57" spans="17:17">
-      <c r="Q57" s="8" t="str">
+      <c r="Q57" s="5" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="58" spans="17:17">
-      <c r="Q58" s="8" t="str">
+      <c r="Q58" s="5" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="59" spans="17:17">
-      <c r="Q59" s="8" t="str">
+      <c r="Q59" s="5" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="60" spans="17:17">
-      <c r="Q60" s="8" t="str">
+      <c r="Q60" s="5" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="61" spans="17:17">
-      <c r="Q61" s="8" t="str">
+      <c r="Q61" s="5" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="62" spans="17:17">
-      <c r="Q62" s="8" t="str">
+      <c r="Q62" s="5" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="63" spans="17:17">
-      <c r="Q63" s="8" t="str">
+      <c r="Q63" s="5" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="64" spans="17:17">
-      <c r="Q64" s="8" t="str">
+      <c r="Q64" s="5" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="65" spans="17:17">
-      <c r="Q65" s="8" t="str">
+      <c r="Q65" s="5" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="66" spans="17:17">
-      <c r="Q66" s="8" t="str">
+      <c r="Q66" s="5" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="67" spans="17:17">
-      <c r="Q67" s="8" t="str">
+      <c r="Q67" s="5" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="68" spans="17:17">
-      <c r="Q68" s="8" t="str">
+      <c r="Q68" s="5" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="69" spans="17:17">
-      <c r="Q69" s="8" t="str">
+      <c r="Q69" s="5" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="70" spans="17:17">
-      <c r="Q70" s="8" t="str">
+      <c r="Q70" s="5" t="str">
         <f t="shared" ref="Q70:Q101" si="2">_xlfn.TEXTJOIN(",",TRUE,H70,J70,L70,N70,P70)</f>
         <v/>
       </c>
     </row>
     <row r="71" spans="17:17">
-      <c r="Q71" s="8" t="str">
+      <c r="Q71" s="5" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="72" spans="17:17">
-      <c r="Q72" s="8" t="str">
+      <c r="Q72" s="5" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="73" spans="17:17">
-      <c r="Q73" s="8" t="str">
+      <c r="Q73" s="5" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="74" spans="17:17">
-      <c r="Q74" s="8" t="str">
+      <c r="Q74" s="5" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="75" spans="17:17">
-      <c r="Q75" s="8" t="str">
+      <c r="Q75" s="5" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="76" spans="17:17">
-      <c r="Q76" s="8" t="str">
+      <c r="Q76" s="5" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="77" spans="17:17">
-      <c r="Q77" s="8" t="str">
+      <c r="Q77" s="5" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="78" spans="17:17">
-      <c r="Q78" s="8" t="str">
+      <c r="Q78" s="5" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="79" spans="17:17">
-      <c r="Q79" s="8" t="str">
+      <c r="Q79" s="5" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="80" spans="17:17">
-      <c r="Q80" s="8" t="str">
+      <c r="Q80" s="5" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="81" spans="17:17">
-      <c r="Q81" s="8" t="str">
+      <c r="Q81" s="5" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="82" spans="17:17">
-      <c r="Q82" s="8" t="str">
+      <c r="Q82" s="5" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="83" spans="17:17">
-      <c r="Q83" s="8" t="str">
+      <c r="Q83" s="5" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="84" spans="17:17">
-      <c r="Q84" s="8" t="str">
+      <c r="Q84" s="5" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="85" spans="17:17">
-      <c r="Q85" s="8" t="str">
+      <c r="Q85" s="5" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="86" spans="17:17">
-      <c r="Q86" s="8" t="str">
+      <c r="Q86" s="5" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="87" spans="17:17">
-      <c r="Q87" s="8" t="str">
+      <c r="Q87" s="5" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="88" spans="17:17">
-      <c r="Q88" s="8" t="str">
+      <c r="Q88" s="5" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="89" spans="17:17">
-      <c r="Q89" s="8" t="str">
+      <c r="Q89" s="5" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="90" spans="17:17">
-      <c r="Q90" s="8" t="str">
+      <c r="Q90" s="5" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="91" spans="17:17">
-      <c r="Q91" s="8" t="str">
+      <c r="Q91" s="5" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="92" spans="17:17">
-      <c r="Q92" s="8" t="str">
+      <c r="Q92" s="5" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="93" spans="17:17">
-      <c r="Q93" s="8" t="str">
+      <c r="Q93" s="5" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="94" spans="17:17">
-      <c r="Q94" s="8" t="str">
+      <c r="Q94" s="5" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="95" spans="17:17">
-      <c r="Q95" s="8" t="str">
+      <c r="Q95" s="5" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="96" spans="17:17">
-      <c r="Q96" s="8" t="str">
+      <c r="Q96" s="5" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="97" spans="17:17">
-      <c r="Q97" s="8" t="str">
+      <c r="Q97" s="5" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="98" spans="17:17">
-      <c r="Q98" s="8" t="str">
+      <c r="Q98" s="5" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="99" spans="17:17">
-      <c r="Q99" s="8" t="str">
+      <c r="Q99" s="5" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="100" spans="17:17">
-      <c r="Q100" s="8" t="str">
+      <c r="Q100" s="5" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="101" spans="17:17">
-      <c r="Q101" s="8" t="str">
+      <c r="Q101" s="5" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="102" spans="17:17">
-      <c r="Q102" s="8" t="str">
+      <c r="Q102" s="5" t="str">
         <f t="shared" ref="Q102:Q128" si="3">_xlfn.TEXTJOIN(",",TRUE,H102,J102,L102,N102,P102)</f>
         <v/>
       </c>
     </row>
     <row r="103" spans="17:17">
-      <c r="Q103" s="8" t="str">
+      <c r="Q103" s="5" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="104" spans="17:17">
-      <c r="Q104" s="8" t="str">
+      <c r="Q104" s="5" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="105" spans="17:17">
-      <c r="Q105" s="8" t="str">
+      <c r="Q105" s="5" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="106" spans="17:17">
-      <c r="Q106" s="8" t="str">
+      <c r="Q106" s="5" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="107" spans="17:17">
-      <c r="Q107" s="8" t="str">
+      <c r="Q107" s="5" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="108" spans="17:17">
-      <c r="Q108" s="8" t="str">
+      <c r="Q108" s="5" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="109" spans="17:17">
-      <c r="Q109" s="8" t="str">
+      <c r="Q109" s="5" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="110" spans="17:17">
-      <c r="Q110" s="8" t="str">
+      <c r="Q110" s="5" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="111" spans="17:17">
-      <c r="Q111" s="8" t="str">
+      <c r="Q111" s="5" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="112" spans="17:17">
-      <c r="Q112" s="8" t="str">
+      <c r="Q112" s="5" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="113" spans="17:17">
-      <c r="Q113" s="8" t="str">
+      <c r="Q113" s="5" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="114" spans="17:17">
-      <c r="Q114" s="8" t="str">
+      <c r="Q114" s="5" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="115" spans="17:17">
-      <c r="Q115" s="8" t="str">
+      <c r="Q115" s="5" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="116" spans="17:17">
-      <c r="Q116" s="8" t="str">
+      <c r="Q116" s="5" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="117" spans="17:17">
-      <c r="Q117" s="8" t="str">
+      <c r="Q117" s="5" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="118" spans="17:17">
-      <c r="Q118" s="8" t="str">
+      <c r="Q118" s="5" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="119" spans="17:17">
-      <c r="Q119" s="8" t="str">
+      <c r="Q119" s="5" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="120" spans="17:17">
-      <c r="Q120" s="8" t="str">
+      <c r="Q120" s="5" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="121" spans="17:17">
-      <c r="Q121" s="8" t="str">
+      <c r="Q121" s="5" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="122" spans="17:17">
-      <c r="Q122" s="8" t="str">
+      <c r="Q122" s="5" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="123" spans="17:17">
-      <c r="Q123" s="8" t="str">
+      <c r="Q123" s="5" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="124" spans="17:17">
-      <c r="Q124" s="8" t="str">
+      <c r="Q124" s="5" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="125" spans="17:17">
-      <c r="Q125" s="8" t="str">
+      <c r="Q125" s="5" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="126" spans="17:17">
-      <c r="Q126" s="8" t="str">
+      <c r="Q126" s="5" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="127" spans="17:17">
-      <c r="Q127" s="8" t="str">
+      <c r="Q127" s="5" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="128" spans="17:17">
-      <c r="Q128" s="8" t="str">
+      <c r="Q128" s="5" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -3009,4 +3019,96 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="3"/>
+  <cols>
+    <col min="4" max="4" width="16.2035398230088" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="13.85" spans="1:4">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+    </row>
+    <row r="2" ht="13.85" spans="1:4">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="2"/>
+    </row>
+    <row r="3" ht="14.6" spans="1:4">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" ht="14.6" spans="1:4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" ht="14.6" spans="1:4">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" ht="13.85" spans="1:4">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="5">
+        <v>1</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" ht="13.85" spans="1:4">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="5">
+        <v>2</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" ht="13.85" spans="1:4">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="5">
+        <v>3</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/Packages/cn.etetet.wow/Excel/EffectConfig.xlsx
+++ b/Packages/cn.etetet.wow/Excel/EffectConfig.xlsx
@@ -8,7 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="EffectConfig" sheetId="1" r:id="rId1"/>
-    <sheet name="#EffectType" sheetId="2" r:id="rId2"/>
+    <sheet name="#constdefine_EffectType" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="42">
   <si>
     <t>#</t>
   </si>
@@ -129,10 +129,16 @@
     <t>命中特效</t>
   </si>
   <si>
+    <t>假子弹伤害</t>
+  </si>
+  <si>
     <t>属性增加</t>
   </si>
   <si>
     <t>速度pct</t>
+  </si>
+  <si>
+    <t>cs</t>
   </si>
   <si>
     <t>名字</t>
@@ -1178,10 +1184,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:V128"/>
+  <dimension ref="A1:V129"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:E8"/>
+      <selection activeCell="I7" sqref="I7:J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.85"/>
@@ -1190,7 +1196,7 @@
     <col min="3" max="3" width="9.61061946902655" style="4" customWidth="1"/>
     <col min="4" max="4" width="21.9115044247788" style="4" customWidth="1"/>
     <col min="5" max="5" width="22.1061946902655" style="4" customWidth="1"/>
-    <col min="6" max="6" width="19.6548672566372" style="4" customWidth="1"/>
+    <col min="6" max="6" width="14.7433628318584" style="4" customWidth="1"/>
     <col min="7" max="7" width="10.9557522123894" style="7" customWidth="1"/>
     <col min="8" max="8" width="9" style="4"/>
     <col min="9" max="9" width="11.0265486725664" style="7" customWidth="1"/>
@@ -1450,7 +1456,7 @@
       <c r="O7" s="10"/>
       <c r="P7" s="11"/>
       <c r="Q7" s="5" t="str">
-        <f t="shared" ref="Q7:Q37" si="0">_xlfn.TEXTJOIN(",",TRUE,H7,J7,L7,N7,P7)</f>
+        <f>_xlfn.TEXTJOIN(",",TRUE,H7,J7,L7,N7,P7)</f>
         <v>100001,100002</v>
       </c>
       <c r="R7" s="11"/>
@@ -1466,30 +1472,19 @@
       <c r="D8" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="E8" s="5">
-        <v>3</v>
-      </c>
+      <c r="E8" s="5"/>
       <c r="F8" s="11"/>
-      <c r="G8" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="H8" s="5">
-        <v>10003</v>
-      </c>
+      <c r="G8" s="10"/>
+      <c r="H8" s="5"/>
       <c r="I8" s="10"/>
-      <c r="J8" s="5">
-        <v>10</v>
-      </c>
+      <c r="J8" s="5"/>
       <c r="K8" s="10"/>
       <c r="L8" s="11"/>
       <c r="M8" s="10"/>
       <c r="N8" s="11"/>
       <c r="O8" s="10"/>
       <c r="P8" s="11"/>
-      <c r="Q8" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>10003,10</v>
-      </c>
+      <c r="Q8" s="5"/>
       <c r="R8" s="11"/>
       <c r="S8" s="11"/>
       <c r="T8" s="11"/>
@@ -1497,14 +1492,26 @@
       <c r="V8" s="11"/>
     </row>
     <row r="9" spans="3:22">
-      <c r="C9" s="5"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="11"/>
+      <c r="C9" s="5">
+        <v>4</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" s="5">
+        <v>3</v>
+      </c>
       <c r="F9" s="11"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="11"/>
+      <c r="G9" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="H9" s="5">
+        <v>10003</v>
+      </c>
       <c r="I9" s="10"/>
-      <c r="J9" s="11"/>
+      <c r="J9" s="5">
+        <v>10</v>
+      </c>
       <c r="K9" s="10"/>
       <c r="L9" s="11"/>
       <c r="M9" s="10"/>
@@ -1512,8 +1519,8 @@
       <c r="O9" s="10"/>
       <c r="P9" s="11"/>
       <c r="Q9" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+        <f t="shared" ref="Q9:Q38" si="0">_xlfn.TEXTJOIN(",",TRUE,H9,J9,L9,N9,P9)</f>
+        <v>10003,10</v>
       </c>
       <c r="R9" s="11"/>
       <c r="S9" s="11"/>
@@ -2237,7 +2244,7 @@
       <c r="O38" s="10"/>
       <c r="P38" s="11"/>
       <c r="Q38" s="5" t="str">
-        <f t="shared" ref="Q38:Q69" si="1">_xlfn.TEXTJOIN(",",TRUE,H38,J38,L38,N38,P38)</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="R38" s="11"/>
@@ -2248,7 +2255,7 @@
     </row>
     <row r="39" spans="3:22">
       <c r="C39" s="5"/>
-      <c r="D39" s="11"/>
+      <c r="D39" s="6"/>
       <c r="E39" s="11"/>
       <c r="F39" s="11"/>
       <c r="G39" s="10"/>
@@ -2262,7 +2269,7 @@
       <c r="O39" s="10"/>
       <c r="P39" s="11"/>
       <c r="Q39" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="Q39:Q70" si="1">_xlfn.TEXTJOIN(",",TRUE,H39,J39,L39,N39,P39)</f>
         <v/>
       </c>
       <c r="R39" s="11"/>
@@ -2347,7 +2354,7 @@
       <c r="V42" s="11"/>
     </row>
     <row r="43" spans="3:22">
-      <c r="C43" s="11"/>
+      <c r="C43" s="5"/>
       <c r="D43" s="11"/>
       <c r="E43" s="11"/>
       <c r="F43" s="11"/>
@@ -2546,11 +2553,30 @@
       <c r="U50" s="11"/>
       <c r="V50" s="11"/>
     </row>
-    <row r="51" spans="17:17">
+    <row r="51" spans="3:22">
+      <c r="C51" s="11"/>
+      <c r="D51" s="11"/>
+      <c r="E51" s="11"/>
+      <c r="F51" s="11"/>
+      <c r="G51" s="10"/>
+      <c r="H51" s="11"/>
+      <c r="I51" s="10"/>
+      <c r="J51" s="11"/>
+      <c r="K51" s="10"/>
+      <c r="L51" s="11"/>
+      <c r="M51" s="10"/>
+      <c r="N51" s="11"/>
+      <c r="O51" s="10"/>
+      <c r="P51" s="11"/>
       <c r="Q51" s="5" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
+      <c r="R51" s="11"/>
+      <c r="S51" s="11"/>
+      <c r="T51" s="11"/>
+      <c r="U51" s="11"/>
+      <c r="V51" s="11"/>
     </row>
     <row r="52" spans="17:17">
       <c r="Q52" s="5" t="str">
@@ -2662,13 +2688,13 @@
     </row>
     <row r="70" spans="17:17">
       <c r="Q70" s="5" t="str">
-        <f t="shared" ref="Q70:Q101" si="2">_xlfn.TEXTJOIN(",",TRUE,H70,J70,L70,N70,P70)</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="71" spans="17:17">
       <c r="Q71" s="5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="Q71:Q102" si="2">_xlfn.TEXTJOIN(",",TRUE,H71,J71,L71,N71,P71)</f>
         <v/>
       </c>
     </row>
@@ -2854,13 +2880,13 @@
     </row>
     <row r="102" spans="17:17">
       <c r="Q102" s="5" t="str">
-        <f t="shared" ref="Q102:Q128" si="3">_xlfn.TEXTJOIN(",",TRUE,H102,J102,L102,N102,P102)</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="103" spans="17:17">
       <c r="Q103" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="Q103:Q129" si="3">_xlfn.TEXTJOIN(",",TRUE,H103,J103,L103,N103,P103)</f>
         <v/>
       </c>
     </row>
@@ -3010,6 +3036,12 @@
     </row>
     <row r="128" spans="17:17">
       <c r="Q128" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="129" spans="17:17">
+      <c r="Q129" s="5" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -3027,16 +3059,19 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="3"/>
   <cols>
     <col min="4" max="4" width="16.2035398230088" customWidth="1"/>
+    <col min="5" max="5" width="12.8230088495575" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="13.85" spans="1:4">
-      <c r="A1" s="1"/>
+      <c r="A1" s="1" t="s">
+        <v>36</v>
+      </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -3054,7 +3089,7 @@
         <v>1</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" ht="14.6" spans="1:4">
@@ -3064,7 +3099,7 @@
         <v>1</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" ht="14.6" spans="1:4">
@@ -3084,7 +3119,7 @@
         <v>1</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" ht="13.85" spans="1:4">
@@ -3094,7 +3129,7 @@
         <v>2</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" ht="13.85" spans="1:4">
@@ -3104,7 +3139,7 @@
         <v>3</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/Packages/cn.etetet.wow/Excel/EffectConfig.xlsx
+++ b/Packages/cn.etetet.wow/Excel/EffectConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="12990"/>
+    <workbookView windowWidth="28695" windowHeight="12990" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="EffectConfig" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="53">
   <si>
     <t>#</t>
   </si>
@@ -141,22 +141,40 @@
     <t>SetAnimatorBool</t>
   </si>
   <si>
-    <t>SpellStart</t>
-  </si>
-  <si>
-    <t>SpellHit</t>
-  </si>
-  <si>
-    <t>SpellRemove</t>
-  </si>
-  <si>
-    <t>BuffAdd</t>
-  </si>
-  <si>
-    <t>BuffRemove</t>
-  </si>
-  <si>
-    <t>BuffTick</t>
+    <t>ServerSpellStart</t>
+  </si>
+  <si>
+    <t>ServerSpellHit</t>
+  </si>
+  <si>
+    <t>ServerSpellRemove</t>
+  </si>
+  <si>
+    <t>ServerBuffAdd</t>
+  </si>
+  <si>
+    <t>ServerBuffRemove</t>
+  </si>
+  <si>
+    <t>ServerBuffTick</t>
+  </si>
+  <si>
+    <t>ClientSpellStart</t>
+  </si>
+  <si>
+    <t>ClientSpellHit</t>
+  </si>
+  <si>
+    <t>ClientSpellRemove</t>
+  </si>
+  <si>
+    <t>ClientBuffAdd</t>
+  </si>
+  <si>
+    <t>ClientBuffRemove</t>
+  </si>
+  <si>
+    <t>ClientBuffTick</t>
   </si>
 </sst>
 </file>
@@ -1192,8 +1210,8 @@
   <sheetPr/>
   <dimension ref="A1:O8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.85" outlineLevelRow="7"/>
@@ -1342,7 +1360,7 @@
     </row>
     <row r="6" spans="3:15">
       <c r="C6" s="5">
-        <v>1</v>
+        <v>1000001</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>18</v>
@@ -1367,7 +1385,7 @@
     </row>
     <row r="7" spans="3:15">
       <c r="C7" s="5">
-        <v>2</v>
+        <v>1000002</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>21</v>
@@ -1394,7 +1412,7 @@
     </row>
     <row r="8" spans="3:15">
       <c r="C8" s="5">
-        <v>3</v>
+        <v>1000003</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>25</v>
@@ -1581,15 +1599,15 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
-    <col min="4" max="4" width="16.2035398230088" customWidth="1"/>
+    <col min="4" max="4" width="24.5663716814159" customWidth="1"/>
     <col min="5" max="5" width="12.8230088495575" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1637,31 +1655,31 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" ht="13.85" spans="1:4">
+    <row r="6" customFormat="1" ht="13.85" spans="1:4">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="5">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="7" ht="13.85" spans="1:4">
+    <row r="7" customFormat="1" ht="13.85" spans="1:4">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="5">
-        <v>2</v>
+        <v>101</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="8" ht="13.85" spans="1:4">
+    <row r="8" customFormat="1" ht="13.85" spans="1:4">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="5">
-        <v>3</v>
+        <v>102</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>43</v>
@@ -1669,7 +1687,7 @@
     </row>
     <row r="9" ht="13.85" spans="3:4">
       <c r="C9" s="5">
-        <v>4</v>
+        <v>103</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>44</v>
@@ -1677,7 +1695,7 @@
     </row>
     <row r="10" ht="13.85" spans="3:4">
       <c r="C10" s="5">
-        <v>5</v>
+        <v>104</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>45</v>
@@ -1685,10 +1703,58 @@
     </row>
     <row r="11" ht="13.85" spans="3:4">
       <c r="C11" s="5">
-        <v>6</v>
+        <v>105</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>46</v>
+      </c>
+    </row>
+    <row r="12" ht="13.85" spans="3:4">
+      <c r="C12" s="5">
+        <v>200</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" ht="13.85" spans="3:4">
+      <c r="C13" s="5">
+        <v>201</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" ht="13.85" spans="3:4">
+      <c r="C14" s="5">
+        <v>202</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" ht="13.85" spans="3:4">
+      <c r="C15" s="5">
+        <v>203</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" ht="13.85" spans="3:4">
+      <c r="C16" s="5">
+        <v>204</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" ht="13.85" spans="3:4">
+      <c r="C17" s="5">
+        <v>205</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/Packages/cn.etetet.wow/Excel/EffectConfig.xlsx
+++ b/Packages/cn.etetet.wow/Excel/EffectConfig.xlsx
@@ -4,13 +4,16 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="12990" activeTab="2"/>
+    <workbookView windowWidth="28695" windowHeight="12990" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="EffectConfig" sheetId="1" r:id="rId1"/>
     <sheet name="#constdefine_EffectType" sheetId="2" r:id="rId2"/>
     <sheet name="#constdefine_EffectTimeType" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="EffectTypeSelect" localSheetId="1">EffectConfig!$E$6</definedName>
+  </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
@@ -30,46 +33,46 @@
     <t>类型</t>
   </si>
   <si>
+    <t>参数</t>
+  </si>
+  <si>
+    <t>#参数1说明</t>
+  </si>
+  <si>
+    <t>#参数2说明</t>
+  </si>
+  <si>
+    <t>#参数3说明</t>
+  </si>
+  <si>
     <t>备注</t>
   </si>
   <si>
-    <t>参数</t>
-  </si>
-  <si>
-    <t>#参数1说明</t>
-  </si>
-  <si>
-    <t>#参数2说明</t>
-  </si>
-  <si>
-    <t>#参数3说明</t>
-  </si>
-  <si>
     <t>Desc</t>
   </si>
   <si>
     <t>Type</t>
   </si>
   <si>
+    <t>ParamsString</t>
+  </si>
+  <si>
+    <t>Params</t>
+  </si>
+  <si>
     <t>ParamDesc</t>
   </si>
   <si>
-    <t>Params</t>
-  </si>
-  <si>
-    <t>ParamsString</t>
-  </si>
-  <si>
     <t>int</t>
   </si>
   <si>
     <t>string</t>
   </si>
   <si>
+    <t>string[]</t>
+  </si>
+  <si>
     <t>int[]</t>
-  </si>
-  <si>
-    <t>string[]</t>
   </si>
   <si>
     <t>普攻伤害</t>
@@ -182,10 +185,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -222,6 +225,97 @@
       <charset val="134"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -230,39 +324,30 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -277,66 +362,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -350,28 +375,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -394,13 +397,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -412,19 +493,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -436,55 +553,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -496,79 +565,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -579,6 +582,45 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -601,7 +643,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -632,36 +674,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -670,160 +682,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -849,13 +852,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="49" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="32" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="49" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1208,10 +1211,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O8"/>
+  <dimension ref="A1:N8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.85" outlineLevelRow="7"/>
@@ -1220,27 +1223,27 @@
     <col min="3" max="3" width="9.61061946902655" style="4" customWidth="1"/>
     <col min="4" max="4" width="21.9115044247788" style="4" customWidth="1"/>
     <col min="5" max="5" width="15.070796460177" style="4" customWidth="1"/>
-    <col min="6" max="6" width="14.7433628318584" style="4" customWidth="1"/>
-    <col min="7" max="7" width="21.3097345132743" style="4" customWidth="1"/>
-    <col min="8" max="8" width="10.9557522123894" style="7" customWidth="1"/>
-    <col min="9" max="9" width="11.0265486725664" style="7" customWidth="1"/>
-    <col min="10" max="10" width="12.283185840708" style="7" customWidth="1"/>
-    <col min="11" max="11" width="24.3628318584071" style="4" customWidth="1"/>
-    <col min="12" max="12" width="10.9557522123894" style="7" customWidth="1"/>
-    <col min="13" max="13" width="11.0265486725664" style="7" customWidth="1"/>
-    <col min="14" max="14" width="12.283185840708" style="7" customWidth="1"/>
+    <col min="6" max="6" width="24.3628318584071" style="4" customWidth="1"/>
+    <col min="7" max="7" width="10.9557522123894" style="7" customWidth="1"/>
+    <col min="8" max="8" width="11.0265486725664" style="7" customWidth="1"/>
+    <col min="9" max="9" width="9.23008849557522" style="7" customWidth="1"/>
+    <col min="10" max="10" width="21.3097345132743" style="4" customWidth="1"/>
+    <col min="11" max="11" width="10.9557522123894" style="7" customWidth="1"/>
+    <col min="12" max="12" width="11.0265486725664" style="7" customWidth="1"/>
+    <col min="13" max="13" width="12.283185840708" style="7" customWidth="1"/>
+    <col min="14" max="14" width="14.7433628318584" style="4" customWidth="1"/>
     <col min="15" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:14">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="K1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="N1" s="1"/>
     </row>
     <row r="2" ht="13.9" spans="1:14">
       <c r="A2" s="1"/>
@@ -1250,27 +1253,27 @@
         <v>0</v>
       </c>
       <c r="E2" s="8"/>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="8"/>
+      <c r="G2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="8"/>
       <c r="H2" s="7" t="s">
         <v>0</v>
       </c>
       <c r="I2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="J2" s="8"/>
+      <c r="K2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="K2" s="8"/>
       <c r="L2" s="7" t="s">
         <v>0</v>
       </c>
       <c r="M2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="N2" s="7" t="s">
+      <c r="N2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
@@ -1286,10 +1289,10 @@
       <c r="E3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="7" t="s">
         <v>5</v>
       </c>
       <c r="H3" s="7" t="s">
@@ -1298,10 +1301,10 @@
       <c r="I3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="J3" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="K3" s="3" t="s">
+      <c r="J3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K3" s="7" t="s">
         <v>5</v>
       </c>
       <c r="L3" s="7" t="s">
@@ -1310,11 +1313,11 @@
       <c r="M3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="N3" s="7" t="s">
+      <c r="N3" s="11" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" ht="14.6" spans="1:11">
+    <row r="4" ht="14.6" spans="1:14">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="3" t="s">
@@ -1326,17 +1329,17 @@
       <c r="E4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="F4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="J4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="N4" s="11" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" ht="14.6" spans="1:11">
+    <row r="5" ht="14.6" spans="1:14">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="3" t="s">
@@ -1348,17 +1351,17 @@
       <c r="E5" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="F5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="N5" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G5" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="3:15">
+    </row>
+    <row r="6" spans="3:14">
       <c r="C6" s="5">
         <v>1000001</v>
       </c>
@@ -1368,22 +1371,21 @@
       <c r="E6" s="5">
         <v>1</v>
       </c>
-      <c r="F6" s="5"/>
-      <c r="G6" s="10" t="s">
+      <c r="F6" s="9"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="H6" s="11" t="s">
+      <c r="K6" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11"/>
-      <c r="K6" s="10"/>
-      <c r="L6" s="11"/>
-      <c r="M6" s="11"/>
-      <c r="N6" s="11"/>
-      <c r="O6" s="12"/>
-    </row>
-    <row r="7" spans="3:15">
+      <c r="L6" s="10"/>
+      <c r="M6" s="10"/>
+      <c r="N6" s="5"/>
+    </row>
+    <row r="7" spans="3:14">
       <c r="C7" s="5">
         <v>1000002</v>
       </c>
@@ -1393,24 +1395,23 @@
       <c r="E7" s="5">
         <v>2</v>
       </c>
-      <c r="F7" s="12"/>
-      <c r="G7" s="10" t="s">
+      <c r="F7" s="9"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="H7" s="11" t="s">
+      <c r="K7" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="I7" s="11" t="s">
+      <c r="L7" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="J7" s="11"/>
-      <c r="K7" s="10"/>
-      <c r="L7" s="11"/>
-      <c r="M7" s="11"/>
-      <c r="N7" s="11"/>
-      <c r="O7" s="12"/>
-    </row>
-    <row r="8" spans="3:15">
+      <c r="M7" s="10"/>
+      <c r="N7" s="12"/>
+    </row>
+    <row r="8" spans="3:14">
       <c r="C8" s="5">
         <v>1000003</v>
       </c>
@@ -1420,20 +1421,19 @@
       <c r="E8" s="5">
         <v>3</v>
       </c>
-      <c r="F8" s="12"/>
-      <c r="G8" s="10" t="s">
+      <c r="F8" s="9"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="H8" s="11" t="s">
+      <c r="K8" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="I8" s="11"/>
-      <c r="J8" s="11"/>
-      <c r="K8" s="10"/>
-      <c r="L8" s="11"/>
-      <c r="M8" s="11"/>
-      <c r="N8" s="11"/>
-      <c r="O8" s="12"/>
+      <c r="L8" s="10"/>
+      <c r="M8" s="10"/>
+      <c r="N8" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1447,8 +1447,8 @@
   <sheetPr/>
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1601,7 +1601,7 @@
   <sheetPr/>
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
